--- a/database/industries/lastic/pekerman/cashflow/quarterly.xlsx
+++ b/database/industries/lastic/pekerman/cashflow/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8212E1-80FD-4182-A421-0389794D8021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,21 +36,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
     <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -70,22 +54,7 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-04-31 (2)</t>
-  </si>
-  <si>
-    <t>1400-10-08 (5)</t>
-  </si>
-  <si>
-    <t>1400-10-30 (2)</t>
-  </si>
-  <si>
-    <t>1401-04-12 (9)</t>
-  </si>
-  <si>
-    <t>1401-04-31 (2)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-09-16 (5)</t>
   </si>
   <si>
     <t>1400-10-30</t>
@@ -94,7 +63,7 @@
     <t>1401-04-31</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-09-16 (2)</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -241,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,7 +408,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -451,7 +420,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -498,23 +467,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -550,23 +502,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -718,23 +653,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -742,13 +675,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -758,13 +686,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -774,13 +697,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -788,13 +706,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -804,13 +717,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -820,13 +728,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -834,13 +737,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -860,59 +758,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -920,15 +788,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -936,123 +799,73 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>1328485</v>
+        <v>3206840</v>
       </c>
       <c r="E12" s="15">
-        <v>-1617279</v>
+        <v>-10823</v>
       </c>
       <c r="F12" s="15">
-        <v>-927592</v>
+        <v>3755629</v>
       </c>
       <c r="G12" s="15">
-        <v>141347</v>
+        <v>-134134</v>
       </c>
       <c r="H12" s="15">
-        <v>-1691639</v>
-      </c>
-      <c r="I12" s="15">
-        <v>3206840</v>
-      </c>
-      <c r="J12" s="15">
-        <v>-10823</v>
-      </c>
-      <c r="K12" s="15">
-        <v>3755629</v>
-      </c>
-      <c r="L12" s="15">
-        <v>-134134</v>
-      </c>
-      <c r="M12" s="15">
-        <v>342134</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>904915</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>0</v>
+        <v>-180770</v>
       </c>
       <c r="E13" s="11">
-        <v>-159318</v>
+        <v>-433848</v>
       </c>
       <c r="F13" s="11">
-        <v>-90000</v>
+        <v>-289233</v>
       </c>
       <c r="G13" s="11">
-        <v>-89142</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>-180770</v>
-      </c>
-      <c r="J13" s="11">
-        <v>-433848</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-289233</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>-46939</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-3097</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>1328485</v>
+        <v>3026070</v>
       </c>
       <c r="E14" s="17">
-        <v>-1776597</v>
+        <v>-444671</v>
       </c>
       <c r="F14" s="17">
-        <v>-1017592</v>
+        <v>3466396</v>
       </c>
       <c r="G14" s="17">
-        <v>52205</v>
+        <v>-134134</v>
       </c>
       <c r="H14" s="17">
-        <v>-1691639</v>
-      </c>
-      <c r="I14" s="17">
-        <v>3026070</v>
-      </c>
-      <c r="J14" s="17">
-        <v>-444671</v>
-      </c>
-      <c r="K14" s="17">
-        <v>3466396</v>
-      </c>
-      <c r="L14" s="17">
-        <v>-134134</v>
-      </c>
-      <c r="M14" s="17">
-        <v>295195</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>901818</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1060,15 +873,10 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
@@ -1086,61 +894,31 @@
       <c r="H16" s="15">
         <v>0</v>
       </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
-        <v>79958</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-102909</v>
+        <v>-424847</v>
       </c>
       <c r="E17" s="11">
-        <v>-692245</v>
+        <v>-5827</v>
       </c>
       <c r="F17" s="11">
-        <v>-230582</v>
+        <v>-945269</v>
       </c>
       <c r="G17" s="11">
-        <v>-976500</v>
+        <v>-248503</v>
       </c>
       <c r="H17" s="11">
-        <v>-351896</v>
-      </c>
-      <c r="I17" s="11">
-        <v>-424847</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-5827</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-945269</v>
-      </c>
-      <c r="L17" s="11">
-        <v>-248503</v>
-      </c>
-      <c r="M17" s="11">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-442989</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -1158,25 +936,10 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1194,25 +957,10 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -1222,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="15">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="G20" s="15">
         <v>0</v>
@@ -1230,25 +978,10 @@
       <c r="H20" s="15">
         <v>0</v>
       </c>
-      <c r="I20" s="15">
-        <v>0</v>
-      </c>
-      <c r="J20" s="15">
-        <v>0</v>
-      </c>
-      <c r="K20" s="15">
-        <v>-14</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1266,25 +999,10 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1302,25 +1020,10 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-      <c r="I22" s="15">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
-        <v>0</v>
-      </c>
-      <c r="K22" s="15">
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1338,68 +1041,38 @@
       <c r="H23" s="11">
         <v>0</v>
       </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>0</v>
+        <v>-91</v>
       </c>
       <c r="E24" s="15">
         <v>0</v>
       </c>
       <c r="F24" s="15">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G24" s="15">
-        <v>-26464</v>
+        <v>0</v>
       </c>
       <c r="H24" s="15">
-        <v>-23783</v>
-      </c>
-      <c r="I24" s="15">
-        <v>-91</v>
-      </c>
-      <c r="J24" s="15">
-        <v>0</v>
-      </c>
-      <c r="K24" s="15">
-        <v>92</v>
-      </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="11">
         <v>0</v>
@@ -1410,61 +1083,31 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>-700000</v>
+        <v>0</v>
       </c>
       <c r="E26" s="15">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="15">
-        <v>-80203</v>
+        <v>0</v>
       </c>
       <c r="H26" s="15">
         <v>0</v>
       </c>
-      <c r="I26" s="15">
-        <v>0</v>
-      </c>
-      <c r="J26" s="15">
-        <v>0</v>
-      </c>
-      <c r="K26" s="15">
-        <v>0</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1482,25 +1125,10 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1518,25 +1146,10 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-      <c r="I28" s="15">
-        <v>0</v>
-      </c>
-      <c r="J28" s="15">
-        <v>0</v>
-      </c>
-      <c r="K28" s="15">
-        <v>0</v>
-      </c>
-      <c r="L28" s="15">
-        <v>0</v>
-      </c>
-      <c r="M28" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1554,25 +1167,10 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
@@ -1582,141 +1180,81 @@
         <v>0</v>
       </c>
       <c r="F30" s="15">
-        <v>0</v>
+        <v>56140</v>
       </c>
       <c r="G30" s="15">
-        <v>510399</v>
+        <v>0</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
       </c>
-      <c r="I30" s="15">
-        <v>0</v>
-      </c>
-      <c r="J30" s="15">
-        <v>0</v>
-      </c>
-      <c r="K30" s="15">
-        <v>56140</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>25066</v>
+        <v>2763</v>
       </c>
       <c r="E31" s="11">
-        <v>10983</v>
+        <v>2121</v>
       </c>
       <c r="F31" s="11">
-        <v>401</v>
+        <v>3125</v>
       </c>
       <c r="G31" s="11">
-        <v>344</v>
+        <v>1879</v>
       </c>
       <c r="H31" s="11">
-        <v>1158</v>
-      </c>
-      <c r="I31" s="11">
-        <v>2763</v>
-      </c>
-      <c r="J31" s="11">
-        <v>2121</v>
-      </c>
-      <c r="K31" s="11">
-        <v>3125</v>
-      </c>
-      <c r="L31" s="11">
-        <v>1879</v>
-      </c>
-      <c r="M31" s="11">
-        <v>4674</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-777843</v>
+        <v>-422175</v>
       </c>
       <c r="E32" s="17">
-        <v>68738</v>
+        <v>-3706</v>
       </c>
       <c r="F32" s="17">
-        <v>-230181</v>
+        <v>-885926</v>
       </c>
       <c r="G32" s="17">
-        <v>-572424</v>
+        <v>-246624</v>
       </c>
       <c r="H32" s="17">
-        <v>-374521</v>
-      </c>
-      <c r="I32" s="17">
-        <v>-422175</v>
-      </c>
-      <c r="J32" s="17">
-        <v>-3706</v>
-      </c>
-      <c r="K32" s="17">
-        <v>-885926</v>
-      </c>
-      <c r="L32" s="17">
-        <v>-246624</v>
-      </c>
-      <c r="M32" s="17">
-        <v>86084</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-438314</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>550642</v>
+        <v>2603895</v>
       </c>
       <c r="E33" s="19">
-        <v>-1707859</v>
+        <v>-448377</v>
       </c>
       <c r="F33" s="19">
-        <v>-1247773</v>
+        <v>2580470</v>
       </c>
       <c r="G33" s="19">
-        <v>-520219</v>
+        <v>-380758</v>
       </c>
       <c r="H33" s="19">
-        <v>-2066160</v>
-      </c>
-      <c r="I33" s="19">
-        <v>2603895</v>
-      </c>
-      <c r="J33" s="19">
-        <v>-448377</v>
-      </c>
-      <c r="K33" s="19">
-        <v>2580470</v>
-      </c>
-      <c r="L33" s="19">
-        <v>-380758</v>
-      </c>
-      <c r="M33" s="19">
-        <v>381279</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>463504</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1724,15 +1262,10 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1750,61 +1283,31 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1822,25 +1325,10 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-      <c r="I37" s="15">
-        <v>0</v>
-      </c>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-      <c r="K37" s="15">
-        <v>0</v>
-      </c>
-      <c r="L37" s="15">
-        <v>0</v>
-      </c>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1850,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>-34214</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -1858,133 +1346,73 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>-34214</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>546470</v>
+        <v>1139632</v>
       </c>
       <c r="E39" s="15">
-        <v>2102446</v>
+        <v>5686262</v>
       </c>
       <c r="F39" s="15">
-        <v>2333000</v>
+        <v>-133657</v>
       </c>
       <c r="G39" s="15">
-        <v>2251735</v>
+        <v>3648497</v>
       </c>
       <c r="H39" s="15">
-        <v>4659550</v>
-      </c>
-      <c r="I39" s="15">
-        <v>1139632</v>
-      </c>
-      <c r="J39" s="15">
-        <v>5686262</v>
-      </c>
-      <c r="K39" s="15">
-        <v>-133657</v>
-      </c>
-      <c r="L39" s="15">
-        <v>3648497</v>
-      </c>
-      <c r="M39" s="15">
-        <v>10336734</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6024250</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-518692</v>
+        <v>-3337044</v>
       </c>
       <c r="E40" s="11">
-        <v>-682125</v>
+        <v>-3011791</v>
       </c>
       <c r="F40" s="11">
-        <v>-731894</v>
+        <v>-2742479</v>
       </c>
       <c r="G40" s="11">
-        <v>-369388</v>
+        <v>-1994126</v>
       </c>
       <c r="H40" s="11">
-        <v>-1922743</v>
-      </c>
-      <c r="I40" s="11">
-        <v>-3337044</v>
-      </c>
-      <c r="J40" s="11">
-        <v>-3011791</v>
-      </c>
-      <c r="K40" s="11">
-        <v>-2742479</v>
-      </c>
-      <c r="L40" s="11">
-        <v>-1994126</v>
-      </c>
-      <c r="M40" s="11">
-        <v>-8211522</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-3808819</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-58199</v>
+        <v>-435312</v>
       </c>
       <c r="E41" s="15">
-        <v>-71200</v>
+        <v>-458752</v>
       </c>
       <c r="F41" s="15">
-        <v>-92686</v>
+        <v>171923</v>
       </c>
       <c r="G41" s="15">
-        <v>-358012</v>
+        <v>-388788</v>
       </c>
       <c r="H41" s="15">
-        <v>-307451</v>
-      </c>
-      <c r="I41" s="15">
-        <v>-435312</v>
-      </c>
-      <c r="J41" s="15">
-        <v>-458752</v>
-      </c>
-      <c r="K41" s="15">
-        <v>171923</v>
-      </c>
-      <c r="L41" s="15">
-        <v>-388788</v>
-      </c>
-      <c r="M41" s="15">
-        <v>-568256</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-416618</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -2002,25 +1430,10 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-      <c r="J42" s="11">
-        <v>0</v>
-      </c>
-      <c r="K42" s="11">
-        <v>0</v>
-      </c>
-      <c r="L42" s="11">
-        <v>0</v>
-      </c>
-      <c r="M42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -2038,25 +1451,10 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-      <c r="I43" s="15">
-        <v>0</v>
-      </c>
-      <c r="J43" s="15">
-        <v>0</v>
-      </c>
-      <c r="K43" s="15">
-        <v>0</v>
-      </c>
-      <c r="L43" s="15">
-        <v>0</v>
-      </c>
-      <c r="M43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -2074,25 +1472,10 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2110,25 +1493,10 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-      <c r="I45" s="15">
-        <v>0</v>
-      </c>
-      <c r="J45" s="15">
-        <v>0</v>
-      </c>
-      <c r="K45" s="15">
-        <v>0</v>
-      </c>
-      <c r="L45" s="15">
-        <v>0</v>
-      </c>
-      <c r="M45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2146,25 +1514,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2182,25 +1535,10 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2218,25 +1556,10 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2254,275 +1577,155 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-124672</v>
+        <v>-78861</v>
       </c>
       <c r="E50" s="11">
-        <v>-336143</v>
+        <v>-1626341</v>
       </c>
       <c r="F50" s="11">
-        <v>-275298</v>
+        <v>128851</v>
       </c>
       <c r="G50" s="11">
-        <v>-465657</v>
+        <v>-880387</v>
       </c>
       <c r="H50" s="11">
-        <v>-409450</v>
-      </c>
-      <c r="I50" s="11">
-        <v>-78861</v>
-      </c>
-      <c r="J50" s="11">
-        <v>-1626341</v>
-      </c>
-      <c r="K50" s="11">
-        <v>128851</v>
-      </c>
-      <c r="L50" s="11">
-        <v>-880387</v>
-      </c>
-      <c r="M50" s="11">
-        <v>-457041</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-624172</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-279765</v>
+        <v>-2711585</v>
       </c>
       <c r="E51" s="17">
-        <v>1137650</v>
+        <v>589378</v>
       </c>
       <c r="F51" s="17">
-        <v>1233122</v>
+        <v>-2609576</v>
       </c>
       <c r="G51" s="17">
-        <v>1058678</v>
+        <v>385196</v>
       </c>
       <c r="H51" s="17">
-        <v>2019906</v>
-      </c>
-      <c r="I51" s="17">
-        <v>-2711585</v>
-      </c>
-      <c r="J51" s="17">
-        <v>589378</v>
-      </c>
-      <c r="K51" s="17">
-        <v>-2609576</v>
-      </c>
-      <c r="L51" s="17">
-        <v>385196</v>
-      </c>
-      <c r="M51" s="17">
-        <v>1099915</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1174641</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>395549</v>
+        <v>-107690</v>
       </c>
       <c r="E52" s="19">
-        <v>-694881</v>
+        <v>141001</v>
       </c>
       <c r="F52" s="19">
-        <v>-14651</v>
+        <v>-29106</v>
       </c>
       <c r="G52" s="19">
-        <v>538459</v>
+        <v>4438</v>
       </c>
       <c r="H52" s="19">
-        <v>-46254</v>
-      </c>
-      <c r="I52" s="19">
-        <v>-107690</v>
-      </c>
-      <c r="J52" s="19">
-        <v>141001</v>
-      </c>
-      <c r="K52" s="19">
-        <v>-29106</v>
-      </c>
-      <c r="L52" s="19">
-        <v>4438</v>
-      </c>
-      <c r="M52" s="19">
-        <v>1481194</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1638145</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>834822</v>
+        <v>1032345</v>
       </c>
       <c r="E53" s="15">
-        <v>1230371</v>
+        <v>939117</v>
       </c>
       <c r="F53" s="15">
-        <v>556805</v>
+        <v>1065656</v>
       </c>
       <c r="G53" s="15">
-        <v>541084</v>
+        <v>1019727</v>
       </c>
       <c r="H53" s="15">
-        <v>1078599</v>
-      </c>
-      <c r="I53" s="15">
-        <v>1032345</v>
-      </c>
-      <c r="J53" s="15">
-        <v>939117</v>
-      </c>
-      <c r="K53" s="15">
-        <v>1065656</v>
-      </c>
-      <c r="L53" s="15">
-        <v>1019727</v>
-      </c>
-      <c r="M53" s="15">
         <v>1024165</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>0</v>
+        <v>14462</v>
       </c>
       <c r="E54" s="11">
-        <v>21315</v>
+        <v>-14462</v>
       </c>
       <c r="F54" s="11">
-        <v>-1070</v>
+        <v>-16823</v>
       </c>
       <c r="G54" s="11">
-        <v>-944</v>
+        <v>0</v>
       </c>
       <c r="H54" s="11">
         <v>0</v>
       </c>
-      <c r="I54" s="11">
-        <v>14462</v>
-      </c>
-      <c r="J54" s="11">
-        <v>-14462</v>
-      </c>
-      <c r="K54" s="11">
-        <v>-16823</v>
-      </c>
-      <c r="L54" s="11">
-        <v>0</v>
-      </c>
-      <c r="M54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>1230371</v>
+        <v>939117</v>
       </c>
       <c r="E55" s="17">
-        <v>556805</v>
+        <v>1065656</v>
       </c>
       <c r="F55" s="17">
-        <v>541084</v>
+        <v>1019727</v>
       </c>
       <c r="G55" s="17">
-        <v>1078599</v>
+        <v>1024165</v>
       </c>
       <c r="H55" s="17">
-        <v>1032345</v>
-      </c>
-      <c r="I55" s="17">
-        <v>939117</v>
-      </c>
-      <c r="J55" s="17">
-        <v>1065656</v>
-      </c>
-      <c r="K55" s="17">
-        <v>1019727</v>
-      </c>
-      <c r="L55" s="17">
-        <v>1024165</v>
-      </c>
-      <c r="M55" s="17">
-        <v>2505359</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2662310</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
         <v>0</v>
       </c>
       <c r="E56" s="11">
-        <v>309905</v>
+        <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>-309905</v>
+        <v>0</v>
       </c>
       <c r="G56" s="11">
-        <v>309905</v>
+        <v>0</v>
       </c>
       <c r="H56" s="11">
         <v>0</v>
       </c>
-      <c r="I56" s="11">
-        <v>0</v>
-      </c>
-      <c r="J56" s="11">
-        <v>0</v>
-      </c>
-      <c r="K56" s="11">
-        <v>0</v>
-      </c>
-      <c r="L56" s="11">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2530,11 +1733,6 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/lastic/pekerman/cashflow/quarterly.xlsx
+++ b/database/industries/lastic/pekerman/cashflow/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BD3766-8172-424F-99AF-5C4AEB4744FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکرمان-گروه‌ صنعتی‌ بارز</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,19 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-09-16 (5)</t>
-  </si>
-  <si>
-    <t>1400-10-30</t>
+    <t>1401-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-30 (6)</t>
   </si>
   <si>
     <t>1401-04-31</t>
   </si>
   <si>
     <t>1401-09-16 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-30</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -210,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,7 +412,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -420,7 +424,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -467,6 +471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -502,6 +523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -653,21 +691,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -676,7 +714,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,7 +725,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -698,7 +736,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -707,7 +745,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -718,7 +756,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -729,7 +767,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -738,7 +776,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -759,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -771,16 +809,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -789,9 +827,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -800,72 +838,72 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>3206840</v>
+        <v>-10823</v>
       </c>
       <c r="E12" s="15">
-        <v>-10823</v>
+        <v>3755629</v>
       </c>
       <c r="F12" s="15">
-        <v>3755629</v>
+        <v>-134134</v>
       </c>
       <c r="G12" s="15">
-        <v>-134134</v>
+        <v>904915</v>
       </c>
       <c r="H12" s="15">
-        <v>904915</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1213047</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-180770</v>
+        <v>-433848</v>
       </c>
       <c r="E13" s="11">
-        <v>-433848</v>
+        <v>-289233</v>
       </c>
       <c r="F13" s="11">
-        <v>-289233</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>-3097</v>
       </c>
       <c r="H13" s="11">
-        <v>-3097</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>3026070</v>
+        <v>-444671</v>
       </c>
       <c r="E14" s="17">
-        <v>-444671</v>
+        <v>3466396</v>
       </c>
       <c r="F14" s="17">
-        <v>3466396</v>
+        <v>-134134</v>
       </c>
       <c r="G14" s="17">
-        <v>-134134</v>
+        <v>901818</v>
       </c>
       <c r="H14" s="17">
-        <v>901818</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1213047</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -874,9 +912,9 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
@@ -895,30 +933,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-424847</v>
+        <v>-5827</v>
       </c>
       <c r="E17" s="11">
-        <v>-5827</v>
+        <v>-945269</v>
       </c>
       <c r="F17" s="11">
-        <v>-945269</v>
+        <v>-248503</v>
       </c>
       <c r="G17" s="11">
-        <v>-248503</v>
+        <v>-442989</v>
       </c>
       <c r="H17" s="11">
-        <v>-442989</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-54034</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -937,9 +975,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -958,19 +996,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
         <v>0</v>
       </c>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F20" s="15">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="G20" s="15">
         <v>0</v>
@@ -979,9 +1017,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1000,9 +1038,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1021,9 +1059,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1042,30 +1080,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>-91</v>
+        <v>0</v>
       </c>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F24" s="15">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
       </c>
       <c r="H24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-19001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1084,9 +1122,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
@@ -1105,9 +1143,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1126,9 +1164,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1147,9 +1185,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1168,93 +1206,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
         <v>0</v>
       </c>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>56140</v>
       </c>
       <c r="F30" s="15">
-        <v>56140</v>
+        <v>0</v>
       </c>
       <c r="G30" s="15">
         <v>0</v>
       </c>
       <c r="H30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>229855</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>2763</v>
+        <v>2121</v>
       </c>
       <c r="E31" s="11">
-        <v>2121</v>
+        <v>3125</v>
       </c>
       <c r="F31" s="11">
-        <v>3125</v>
+        <v>1879</v>
       </c>
       <c r="G31" s="11">
-        <v>1879</v>
+        <v>4675</v>
       </c>
       <c r="H31" s="11">
-        <v>4675</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-422175</v>
+        <v>-3706</v>
       </c>
       <c r="E32" s="17">
-        <v>-3706</v>
+        <v>-885926</v>
       </c>
       <c r="F32" s="17">
-        <v>-885926</v>
+        <v>-246624</v>
       </c>
       <c r="G32" s="17">
-        <v>-246624</v>
+        <v>-438314</v>
       </c>
       <c r="H32" s="17">
-        <v>-438314</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>158556</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>2603895</v>
+        <v>-448377</v>
       </c>
       <c r="E33" s="19">
-        <v>-448377</v>
+        <v>2580470</v>
       </c>
       <c r="F33" s="19">
-        <v>2580470</v>
+        <v>-380758</v>
       </c>
       <c r="G33" s="19">
-        <v>-380758</v>
+        <v>463504</v>
       </c>
       <c r="H33" s="19">
-        <v>463504</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1371603</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1263,9 +1301,9 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1284,30 +1322,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1326,19 +1364,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>-34214</v>
       </c>
       <c r="F38" s="11">
-        <v>-34214</v>
+        <v>0</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -1347,72 +1385,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>1139632</v>
+        <v>5686262</v>
       </c>
       <c r="E39" s="15">
-        <v>5686262</v>
+        <v>-133657</v>
       </c>
       <c r="F39" s="15">
-        <v>-133657</v>
+        <v>3648497</v>
       </c>
       <c r="G39" s="15">
-        <v>3648497</v>
+        <v>6024250</v>
       </c>
       <c r="H39" s="15">
-        <v>6024250</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7594386</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-3337044</v>
+        <v>-3011791</v>
       </c>
       <c r="E40" s="11">
-        <v>-3011791</v>
+        <v>-2742479</v>
       </c>
       <c r="F40" s="11">
-        <v>-2742479</v>
+        <v>-1994126</v>
       </c>
       <c r="G40" s="11">
-        <v>-1994126</v>
+        <v>-3808819</v>
       </c>
       <c r="H40" s="11">
-        <v>-3808819</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-6943962</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-435312</v>
+        <v>-458752</v>
       </c>
       <c r="E41" s="15">
-        <v>-458752</v>
+        <v>171923</v>
       </c>
       <c r="F41" s="15">
-        <v>171923</v>
+        <v>-388788</v>
       </c>
       <c r="G41" s="15">
-        <v>-388788</v>
+        <v>-416618</v>
       </c>
       <c r="H41" s="15">
-        <v>-416618</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-989075</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -1431,9 +1469,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -1452,9 +1490,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -1473,9 +1511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1494,9 +1532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1515,9 +1553,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1536,9 +1574,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1557,9 +1595,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1578,103 +1616,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-78861</v>
+        <v>-1626341</v>
       </c>
       <c r="E50" s="11">
-        <v>-1626341</v>
+        <v>128851</v>
       </c>
       <c r="F50" s="11">
-        <v>128851</v>
+        <v>-880387</v>
       </c>
       <c r="G50" s="11">
-        <v>-880387</v>
+        <v>-624172</v>
       </c>
       <c r="H50" s="11">
-        <v>-624172</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2175628</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-2711585</v>
+        <v>589378</v>
       </c>
       <c r="E51" s="17">
-        <v>589378</v>
+        <v>-2609576</v>
       </c>
       <c r="F51" s="17">
-        <v>-2609576</v>
+        <v>385196</v>
       </c>
       <c r="G51" s="17">
-        <v>385196</v>
+        <v>1174641</v>
       </c>
       <c r="H51" s="17">
-        <v>1174641</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2514279</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>-107690</v>
+        <v>141001</v>
       </c>
       <c r="E52" s="19">
-        <v>141001</v>
+        <v>-29106</v>
       </c>
       <c r="F52" s="19">
-        <v>-29106</v>
+        <v>4438</v>
       </c>
       <c r="G52" s="19">
-        <v>4438</v>
+        <v>1638145</v>
       </c>
       <c r="H52" s="19">
-        <v>1638145</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1142676</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>1032345</v>
+        <v>939117</v>
       </c>
       <c r="E53" s="15">
-        <v>939117</v>
+        <v>1065656</v>
       </c>
       <c r="F53" s="15">
-        <v>1065656</v>
+        <v>1019727</v>
       </c>
       <c r="G53" s="15">
-        <v>1019727</v>
+        <v>1024165</v>
       </c>
       <c r="H53" s="15">
-        <v>1024165</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2662310</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>14462</v>
+        <v>-14462</v>
       </c>
       <c r="E54" s="11">
-        <v>-14462</v>
+        <v>-16823</v>
       </c>
       <c r="F54" s="11">
-        <v>-16823</v>
+        <v>0</v>
       </c>
       <c r="G54" s="11">
         <v>0</v>
@@ -1683,30 +1721,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>939117</v>
+        <v>1065656</v>
       </c>
       <c r="E55" s="17">
-        <v>1065656</v>
+        <v>1019727</v>
       </c>
       <c r="F55" s="17">
-        <v>1019727</v>
+        <v>1024165</v>
       </c>
       <c r="G55" s="17">
-        <v>1024165</v>
+        <v>2662310</v>
       </c>
       <c r="H55" s="17">
-        <v>2662310</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1519634</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
@@ -1725,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>

--- a/database/industries/lastic/pekerman/cashflow/quarterly.xlsx
+++ b/database/industries/lastic/pekerman/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BD3766-8172-424F-99AF-5C4AEB4744FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74C9E17-F8C7-454B-9743-4D1AC4F3528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-10-08 (5)</t>
+  </si>
+  <si>
+    <t>1400-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-04-12 (9)</t>
+  </si>
+  <si>
+    <t>1401-04-31 (2)</t>
+  </si>
+  <si>
+    <t>1401-09-16 (5)</t>
   </si>
   <si>
     <t>1401-10-30 (2)</t>
@@ -692,20 +722,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -713,8 +745,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +761,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -735,8 +777,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -744,8 +791,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,8 +807,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,8 +823,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -775,8 +837,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -796,29 +863,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,10 +923,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -837,73 +939,123 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>-1617279</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-927592</v>
+      </c>
+      <c r="F12" s="15">
+        <v>141347</v>
+      </c>
+      <c r="G12" s="15">
+        <v>-1691639</v>
+      </c>
+      <c r="H12" s="15">
+        <v>3206840</v>
+      </c>
+      <c r="I12" s="15">
         <v>-10823</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>3755629</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>-134134</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>904915</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>1213047</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-159318</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-90000</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-89142</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-180770</v>
+      </c>
+      <c r="I13" s="11">
         <v>-433848</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>-289233</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
         <v>-3097</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>-1776597</v>
+      </c>
+      <c r="E14" s="17">
+        <v>-1017592</v>
+      </c>
+      <c r="F14" s="17">
+        <v>52205</v>
+      </c>
+      <c r="G14" s="17">
+        <v>-1691639</v>
+      </c>
+      <c r="H14" s="17">
+        <v>3026070</v>
+      </c>
+      <c r="I14" s="17">
         <v>-444671</v>
       </c>
-      <c r="E14" s="17">
+      <c r="J14" s="17">
         <v>3466396</v>
       </c>
-      <c r="F14" s="17">
+      <c r="K14" s="17">
         <v>-134134</v>
       </c>
-      <c r="G14" s="17">
+      <c r="L14" s="17">
         <v>901818</v>
       </c>
-      <c r="H14" s="17">
+      <c r="M14" s="17">
         <v>1213047</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -911,10 +1063,15 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
@@ -932,31 +1089,61 @@
       <c r="H16" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>-692245</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-230582</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-976500</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-351896</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-424847</v>
+      </c>
+      <c r="I17" s="11">
         <v>-5827</v>
       </c>
-      <c r="E17" s="11">
+      <c r="J17" s="11">
         <v>-945269</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>-248503</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>-442989</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-54034</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -974,10 +1161,25 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -995,31 +1197,61 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
         <v>0</v>
       </c>
       <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
         <v>-14</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1037,10 +1269,25 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1058,10 +1305,25 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1079,35 +1341,65 @@
       <c r="H23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
         <v>0</v>
       </c>
       <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>-26464</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-23783</v>
+      </c>
+      <c r="H24" s="15">
+        <v>-91</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
         <v>92</v>
       </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
         <v>-19001</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
@@ -1121,20 +1413,35 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
       </c>
       <c r="F26" s="15">
-        <v>0</v>
+        <v>-80203</v>
       </c>
       <c r="G26" s="15">
         <v>0</v>
@@ -1142,10 +1449,25 @@
       <c r="H26" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1163,10 +1485,25 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1184,10 +1521,25 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1205,94 +1557,169 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
         <v>0</v>
       </c>
       <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>510399</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
         <v>56140</v>
       </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
         <v>229855</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>10983</v>
+      </c>
+      <c r="E31" s="11">
+        <v>401</v>
+      </c>
+      <c r="F31" s="11">
+        <v>344</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1158</v>
+      </c>
+      <c r="H31" s="11">
+        <v>2763</v>
+      </c>
+      <c r="I31" s="11">
         <v>2121</v>
       </c>
-      <c r="E31" s="11">
+      <c r="J31" s="11">
         <v>3125</v>
       </c>
-      <c r="F31" s="11">
+      <c r="K31" s="11">
         <v>1879</v>
       </c>
-      <c r="G31" s="11">
+      <c r="L31" s="11">
         <v>4675</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>1736</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>68738</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-230181</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-572424</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-374521</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-422175</v>
+      </c>
+      <c r="I32" s="17">
         <v>-3706</v>
       </c>
-      <c r="E32" s="17">
+      <c r="J32" s="17">
         <v>-885926</v>
       </c>
-      <c r="F32" s="17">
+      <c r="K32" s="17">
         <v>-246624</v>
       </c>
-      <c r="G32" s="17">
+      <c r="L32" s="17">
         <v>-438314</v>
       </c>
-      <c r="H32" s="17">
+      <c r="M32" s="17">
         <v>158556</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>-1707859</v>
+      </c>
+      <c r="E33" s="19">
+        <v>-1247773</v>
+      </c>
+      <c r="F33" s="19">
+        <v>-520219</v>
+      </c>
+      <c r="G33" s="19">
+        <v>-2066160</v>
+      </c>
+      <c r="H33" s="19">
+        <v>2603895</v>
+      </c>
+      <c r="I33" s="19">
         <v>-448377</v>
       </c>
-      <c r="E33" s="19">
+      <c r="J33" s="19">
         <v>2580470</v>
       </c>
-      <c r="F33" s="19">
+      <c r="K33" s="19">
         <v>-380758</v>
       </c>
-      <c r="G33" s="19">
+      <c r="L33" s="19">
         <v>463504</v>
       </c>
-      <c r="H33" s="19">
+      <c r="M33" s="19">
         <v>1371603</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1300,10 +1727,15 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1321,31 +1753,61 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1363,94 +1825,169 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
         <v>-34214</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
+        <v>2102446</v>
+      </c>
+      <c r="E39" s="15">
+        <v>2333000</v>
+      </c>
+      <c r="F39" s="15">
+        <v>2251735</v>
+      </c>
+      <c r="G39" s="15">
+        <v>4659550</v>
+      </c>
+      <c r="H39" s="15">
+        <v>1139632</v>
+      </c>
+      <c r="I39" s="15">
         <v>5686262</v>
       </c>
-      <c r="E39" s="15">
+      <c r="J39" s="15">
         <v>-133657</v>
       </c>
-      <c r="F39" s="15">
+      <c r="K39" s="15">
         <v>3648497</v>
       </c>
-      <c r="G39" s="15">
+      <c r="L39" s="15">
         <v>6024250</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>7594386</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>-682125</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-731894</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-369388</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-1922743</v>
+      </c>
+      <c r="H40" s="11">
+        <v>-3337044</v>
+      </c>
+      <c r="I40" s="11">
         <v>-3011791</v>
       </c>
-      <c r="E40" s="11">
+      <c r="J40" s="11">
         <v>-2742479</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>-1994126</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>-3808819</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>-6943962</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-71200</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-92686</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-358012</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-307451</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-435312</v>
+      </c>
+      <c r="I41" s="15">
         <v>-458752</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>171923</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>-388788</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>-416618</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>-989075</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -1468,10 +2005,25 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -1489,10 +2041,25 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -1510,10 +2077,25 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1531,10 +2113,25 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1552,10 +2149,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1573,10 +2185,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1594,10 +2221,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1615,146 +2257,251 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-336143</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-275298</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-465657</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-409450</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-78861</v>
+      </c>
+      <c r="I50" s="11">
         <v>-1626341</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>128851</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>-880387</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>-624172</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>-2175628</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>1137650</v>
+      </c>
+      <c r="E51" s="17">
+        <v>1233122</v>
+      </c>
+      <c r="F51" s="17">
+        <v>1058678</v>
+      </c>
+      <c r="G51" s="17">
+        <v>2019906</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-2711585</v>
+      </c>
+      <c r="I51" s="17">
         <v>589378</v>
       </c>
-      <c r="E51" s="17">
+      <c r="J51" s="17">
         <v>-2609576</v>
       </c>
-      <c r="F51" s="17">
+      <c r="K51" s="17">
         <v>385196</v>
       </c>
-      <c r="G51" s="17">
+      <c r="L51" s="17">
         <v>1174641</v>
       </c>
-      <c r="H51" s="17">
+      <c r="M51" s="17">
         <v>-2514279</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>-694881</v>
+      </c>
+      <c r="E52" s="19">
+        <v>-14651</v>
+      </c>
+      <c r="F52" s="19">
+        <v>538459</v>
+      </c>
+      <c r="G52" s="19">
+        <v>-46254</v>
+      </c>
+      <c r="H52" s="19">
+        <v>-107690</v>
+      </c>
+      <c r="I52" s="19">
         <v>141001</v>
       </c>
-      <c r="E52" s="19">
+      <c r="J52" s="19">
         <v>-29106</v>
       </c>
-      <c r="F52" s="19">
+      <c r="K52" s="19">
         <v>4438</v>
       </c>
-      <c r="G52" s="19">
+      <c r="L52" s="19">
         <v>1638145</v>
       </c>
-      <c r="H52" s="19">
+      <c r="M52" s="19">
         <v>-1142676</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>1230371</v>
+      </c>
+      <c r="E53" s="15">
+        <v>556805</v>
+      </c>
+      <c r="F53" s="15">
+        <v>541084</v>
+      </c>
+      <c r="G53" s="15">
+        <v>1078599</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1032345</v>
+      </c>
+      <c r="I53" s="15">
         <v>939117</v>
       </c>
-      <c r="E53" s="15">
+      <c r="J53" s="15">
         <v>1065656</v>
       </c>
-      <c r="F53" s="15">
+      <c r="K53" s="15">
         <v>1019727</v>
       </c>
-      <c r="G53" s="15">
+      <c r="L53" s="15">
         <v>1024165</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>2662310</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>21315</v>
+      </c>
+      <c r="E54" s="11">
+        <v>-1070</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-944</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>14462</v>
+      </c>
+      <c r="I54" s="11">
         <v>-14462</v>
       </c>
-      <c r="E54" s="11">
+      <c r="J54" s="11">
         <v>-16823</v>
       </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>556805</v>
+      </c>
+      <c r="E55" s="17">
+        <v>541084</v>
+      </c>
+      <c r="F55" s="17">
+        <v>1078599</v>
+      </c>
+      <c r="G55" s="17">
+        <v>1032345</v>
+      </c>
+      <c r="H55" s="17">
+        <v>939117</v>
+      </c>
+      <c r="I55" s="17">
         <v>1065656</v>
       </c>
-      <c r="E55" s="17">
+      <c r="J55" s="17">
         <v>1019727</v>
       </c>
-      <c r="F55" s="17">
+      <c r="K55" s="17">
         <v>1024165</v>
       </c>
-      <c r="G55" s="17">
+      <c r="L55" s="17">
         <v>2662310</v>
       </c>
-      <c r="H55" s="17">
+      <c r="M55" s="17">
         <v>1519634</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>0</v>
+        <v>309905</v>
       </c>
       <c r="E56" s="11">
-        <v>0</v>
+        <v>-309905</v>
       </c>
       <c r="F56" s="11">
-        <v>0</v>
+        <v>309905</v>
       </c>
       <c r="G56" s="11">
         <v>0</v>
@@ -1762,8 +2509,23 @@
       <c r="H56" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1771,6 +2533,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/lastic/pekerman/cashflow/quarterly.xlsx
+++ b/database/industries/lastic/pekerman/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74C9E17-F8C7-454B-9743-4D1AC4F3528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8319873C-C9F4-4ECD-BC5C-9BEA26C3F620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -726,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -737,7 +737,7 @@
     <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,7 +751,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,7 +797,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,7 +843,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -879,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -915,7 +915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,7 +929,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -945,7 +945,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
@@ -981,7 +981,7 @@
         <v>1213047</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>1213047</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>-54034</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>-19001</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>41</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>45</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>229855</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>158556</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>1371603</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>49</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>50</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>7594386</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>-6943962</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>-989075</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>58</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>59</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>60</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>-2175628</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>67</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>-2514279</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>68</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>-1142676</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>2662310</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>71</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>1519634</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>

--- a/database/industries/lastic/pekerman/cashflow/quarterly.xlsx
+++ b/database/industries/lastic/pekerman/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\lastic\pekerman\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8319873C-C9F4-4ECD-BC5C-9BEA26C3F620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B17FB1-99FF-4AB1-B88B-31F878F2858C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="4530" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>پکرمان-گروه‌ صنعتی‌ بارز</t>
@@ -37,6 +37,27 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
@@ -67,9 +88,39 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-03-25 (8)</t>
+  </si>
+  <si>
+    <t>1399-04-31 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-14 (4)</t>
+  </si>
+  <si>
+    <t>1399-10-27 (2)</t>
+  </si>
+  <si>
+    <t>1400-04-10 (8)</t>
+  </si>
+  <si>
+    <t>1400-04-31 (2)</t>
+  </si>
+  <si>
     <t>1400-10-08 (5)</t>
   </si>
   <si>
@@ -88,16 +139,25 @@
     <t>1401-10-30 (2)</t>
   </si>
   <si>
-    <t>1401-10-30 (6)</t>
-  </si>
-  <si>
-    <t>1401-04-31</t>
-  </si>
-  <si>
-    <t>1401-09-16 (2)</t>
+    <t>1402-04-06 (8)</t>
+  </si>
+  <si>
+    <t>1402-04-31 (2)</t>
+  </si>
+  <si>
+    <t>1402-09-15 (4)</t>
   </si>
   <si>
     <t>1401-10-30</t>
+  </si>
+  <si>
+    <t>1402-09-15 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-31</t>
+  </si>
+  <si>
+    <t>1402-09-15 (2)</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -722,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,14 +790,20 @@
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -750,8 +816,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,8 +842,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -782,8 +868,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -796,8 +892,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -812,8 +918,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -828,8 +944,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -842,8 +968,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -878,44 +1014,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -928,10 +1124,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -944,118 +1150,218 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>306956</v>
+      </c>
+      <c r="E12" s="15">
+        <v>857479</v>
+      </c>
+      <c r="F12" s="15">
+        <v>-132391</v>
+      </c>
+      <c r="G12" s="15">
+        <v>218764</v>
+      </c>
+      <c r="H12" s="15">
+        <v>580990</v>
+      </c>
+      <c r="I12" s="15">
+        <v>430867</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1328485</v>
+      </c>
+      <c r="K12" s="15">
         <v>-1617279</v>
       </c>
-      <c r="E12" s="15">
+      <c r="L12" s="15">
         <v>-927592</v>
       </c>
-      <c r="F12" s="15">
+      <c r="M12" s="15">
         <v>141347</v>
       </c>
-      <c r="G12" s="15">
+      <c r="N12" s="15">
         <v>-1691639</v>
       </c>
-      <c r="H12" s="15">
+      <c r="O12" s="15">
         <v>3206840</v>
       </c>
-      <c r="I12" s="15">
+      <c r="P12" s="15">
         <v>-10823</v>
       </c>
-      <c r="J12" s="15">
+      <c r="Q12" s="15">
         <v>3755629</v>
       </c>
-      <c r="K12" s="15">
+      <c r="R12" s="15">
         <v>-134134</v>
       </c>
-      <c r="L12" s="15">
+      <c r="S12" s="15">
         <v>904915</v>
       </c>
-      <c r="M12" s="15">
+      <c r="T12" s="15">
         <v>1213047</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="15">
+        <v>5850999</v>
+      </c>
+      <c r="V12" s="15">
+        <v>2397216</v>
+      </c>
+      <c r="W12" s="15">
+        <v>-1796812</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-87686</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-92459</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-26169</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
         <v>-159318</v>
       </c>
-      <c r="E13" s="11">
+      <c r="L13" s="11">
         <v>-90000</v>
       </c>
-      <c r="F13" s="11">
+      <c r="M13" s="11">
         <v>-89142</v>
       </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
         <v>-180770</v>
       </c>
-      <c r="I13" s="11">
+      <c r="P13" s="11">
         <v>-433848</v>
       </c>
-      <c r="J13" s="11">
+      <c r="Q13" s="11">
         <v>-289233</v>
       </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
         <v>-3097</v>
       </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>-3907</v>
+      </c>
+      <c r="V13" s="11">
+        <v>-256818</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-296609</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>219270</v>
+      </c>
+      <c r="E14" s="17">
+        <v>765020</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-132391</v>
+      </c>
+      <c r="G14" s="17">
+        <v>192595</v>
+      </c>
+      <c r="H14" s="17">
+        <v>580990</v>
+      </c>
+      <c r="I14" s="17">
+        <v>430867</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1328485</v>
+      </c>
+      <c r="K14" s="17">
         <v>-1776597</v>
       </c>
-      <c r="E14" s="17">
+      <c r="L14" s="17">
         <v>-1017592</v>
       </c>
-      <c r="F14" s="17">
+      <c r="M14" s="17">
         <v>52205</v>
       </c>
-      <c r="G14" s="17">
+      <c r="N14" s="17">
         <v>-1691639</v>
       </c>
-      <c r="H14" s="17">
+      <c r="O14" s="17">
         <v>3026070</v>
       </c>
-      <c r="I14" s="17">
+      <c r="P14" s="17">
         <v>-444671</v>
       </c>
-      <c r="J14" s="17">
+      <c r="Q14" s="17">
         <v>3466396</v>
       </c>
-      <c r="K14" s="17">
+      <c r="R14" s="17">
         <v>-134134</v>
       </c>
-      <c r="L14" s="17">
+      <c r="S14" s="17">
         <v>901818</v>
       </c>
-      <c r="M14" s="17">
+      <c r="T14" s="17">
         <v>1213047</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="17">
+        <v>5847092</v>
+      </c>
+      <c r="V14" s="17">
+        <v>2140398</v>
+      </c>
+      <c r="W14" s="17">
+        <v>-2093421</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1068,17 +1374,27 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
         <v>0</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>3625</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
@@ -1104,46 +1420,106 @@
       <c r="M16" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="15">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>67204</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>-25730</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-225196</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-32297</v>
+      </c>
+      <c r="G17" s="11">
+        <v>31904</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-37005</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-318220</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-102909</v>
+      </c>
+      <c r="K17" s="11">
         <v>-692245</v>
       </c>
-      <c r="E17" s="11">
+      <c r="L17" s="11">
         <v>-230582</v>
       </c>
-      <c r="F17" s="11">
+      <c r="M17" s="11">
         <v>-976500</v>
       </c>
-      <c r="G17" s="11">
+      <c r="N17" s="11">
         <v>-351896</v>
       </c>
-      <c r="H17" s="11">
+      <c r="O17" s="11">
         <v>-424847</v>
       </c>
-      <c r="I17" s="11">
+      <c r="P17" s="11">
         <v>-5827</v>
       </c>
-      <c r="J17" s="11">
+      <c r="Q17" s="11">
         <v>-945269</v>
       </c>
-      <c r="K17" s="11">
+      <c r="R17" s="11">
         <v>-248503</v>
       </c>
-      <c r="L17" s="11">
+      <c r="S17" s="11">
         <v>-442989</v>
       </c>
-      <c r="M17" s="11">
+      <c r="T17" s="11">
         <v>-54034</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="11">
+        <v>-862241</v>
+      </c>
+      <c r="V17" s="11">
+        <v>-626552</v>
+      </c>
+      <c r="W17" s="11">
+        <v>-611248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -1176,17 +1552,47 @@
       <c r="M18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>7540</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
@@ -1212,17 +1618,47 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
         <v>0</v>
       </c>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="F20" s="15">
         <v>0</v>
@@ -1237,21 +1673,51 @@
         <v>0</v>
       </c>
       <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
         <v>-14</v>
       </c>
-      <c r="K20" s="15">
-        <v>0</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1284,10 +1750,40 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1320,10 +1816,40 @@
       <c r="M22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1356,118 +1882,238 @@
       <c r="M23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <v>0</v>
+      </c>
+      <c r="V23" s="11">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11">
+        <v>71156</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>0</v>
+        <v>-661</v>
       </c>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-7365</v>
+      </c>
+      <c r="H24" s="15">
+        <v>-15159</v>
+      </c>
+      <c r="I24" s="15">
+        <v>-1000</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
         <v>-26464</v>
       </c>
-      <c r="G24" s="15">
+      <c r="N24" s="15">
         <v>-23783</v>
       </c>
-      <c r="H24" s="15">
+      <c r="O24" s="15">
         <v>-91</v>
       </c>
-      <c r="I24" s="15">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="P24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15">
         <v>92</v>
       </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
-      <c r="M24" s="15">
+      <c r="R24" s="15">
+        <v>0</v>
+      </c>
+      <c r="S24" s="15">
+        <v>0</v>
+      </c>
+      <c r="T24" s="15">
         <v>-19001</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="15">
+        <v>5701</v>
+      </c>
+      <c r="V24" s="15">
+        <v>0</v>
+      </c>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>250000</v>
+      </c>
+      <c r="G25" s="11">
+        <v>-50000</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
         <v>50000</v>
       </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
       <c r="L25" s="11">
         <v>0</v>
       </c>
       <c r="M25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
+        <v>-733738</v>
+      </c>
+      <c r="E26" s="15">
+        <v>483738</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>-700000</v>
+      </c>
+      <c r="K26" s="15">
         <v>700000</v>
       </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15">
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
         <v>-80203</v>
       </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0</v>
-      </c>
-      <c r="I26" s="15">
-        <v>0</v>
-      </c>
-      <c r="J26" s="15">
-        <v>0</v>
-      </c>
-      <c r="K26" s="15">
-        <v>0</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>0</v>
+      </c>
+      <c r="R26" s="15">
+        <v>0</v>
+      </c>
+      <c r="S26" s="15">
+        <v>0</v>
+      </c>
+      <c r="T26" s="15">
+        <v>0</v>
+      </c>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15">
+        <v>0</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1500,10 +2146,40 @@
       <c r="M27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1536,10 +2212,40 @@
       <c r="M28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1572,10 +2278,40 @@
       <c r="M29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
@@ -1585,141 +2321,261 @@
         <v>0</v>
       </c>
       <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>243000</v>
+      </c>
+      <c r="H30" s="15">
+        <v>10396</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
         <v>510399</v>
       </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
-        <v>0</v>
-      </c>
-      <c r="I30" s="15">
-        <v>0</v>
-      </c>
-      <c r="J30" s="15">
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15">
         <v>56140</v>
       </c>
-      <c r="K30" s="15">
-        <v>0</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
+      <c r="R30" s="15">
+        <v>0</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
         <v>229855</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>4071</v>
+      </c>
+      <c r="E31" s="11">
+        <v>40437</v>
+      </c>
+      <c r="F31" s="11">
+        <v>10860</v>
+      </c>
+      <c r="G31" s="11">
+        <v>25111</v>
+      </c>
+      <c r="H31" s="11">
+        <v>5826</v>
+      </c>
+      <c r="I31" s="11">
+        <v>26152</v>
+      </c>
+      <c r="J31" s="11">
+        <v>25066</v>
+      </c>
+      <c r="K31" s="11">
         <v>10983</v>
       </c>
-      <c r="E31" s="11">
+      <c r="L31" s="11">
         <v>401</v>
       </c>
-      <c r="F31" s="11">
+      <c r="M31" s="11">
         <v>344</v>
       </c>
-      <c r="G31" s="11">
+      <c r="N31" s="11">
         <v>1158</v>
       </c>
-      <c r="H31" s="11">
+      <c r="O31" s="11">
         <v>2763</v>
       </c>
-      <c r="I31" s="11">
+      <c r="P31" s="11">
         <v>2121</v>
       </c>
-      <c r="J31" s="11">
+      <c r="Q31" s="11">
         <v>3125</v>
       </c>
-      <c r="K31" s="11">
+      <c r="R31" s="11">
         <v>1879</v>
       </c>
-      <c r="L31" s="11">
+      <c r="S31" s="11">
         <v>4675</v>
       </c>
-      <c r="M31" s="11">
+      <c r="T31" s="11">
         <v>1736</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U31" s="11">
+        <v>4811</v>
+      </c>
+      <c r="V31" s="11">
+        <v>7278</v>
+      </c>
+      <c r="W31" s="11">
+        <v>8986</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>-756058</v>
+      </c>
+      <c r="E32" s="17">
+        <v>310604</v>
+      </c>
+      <c r="F32" s="17">
+        <v>228563</v>
+      </c>
+      <c r="G32" s="17">
+        <v>242650</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-35942</v>
+      </c>
+      <c r="I32" s="17">
+        <v>-293068</v>
+      </c>
+      <c r="J32" s="17">
+        <v>-777843</v>
+      </c>
+      <c r="K32" s="17">
         <v>68738</v>
       </c>
-      <c r="E32" s="17">
+      <c r="L32" s="17">
         <v>-230181</v>
       </c>
-      <c r="F32" s="17">
+      <c r="M32" s="17">
         <v>-572424</v>
       </c>
-      <c r="G32" s="17">
+      <c r="N32" s="17">
         <v>-374521</v>
       </c>
-      <c r="H32" s="17">
+      <c r="O32" s="17">
         <v>-422175</v>
       </c>
-      <c r="I32" s="17">
+      <c r="P32" s="17">
         <v>-3706</v>
       </c>
-      <c r="J32" s="17">
+      <c r="Q32" s="17">
         <v>-885926</v>
       </c>
-      <c r="K32" s="17">
+      <c r="R32" s="17">
         <v>-246624</v>
       </c>
-      <c r="L32" s="17">
+      <c r="S32" s="17">
         <v>-438314</v>
       </c>
-      <c r="M32" s="17">
+      <c r="T32" s="17">
         <v>158556</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U32" s="17">
+        <v>-784525</v>
+      </c>
+      <c r="V32" s="17">
+        <v>-619274</v>
+      </c>
+      <c r="W32" s="17">
+        <v>-531106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>-536788</v>
+      </c>
+      <c r="E33" s="19">
+        <v>1075624</v>
+      </c>
+      <c r="F33" s="19">
+        <v>96172</v>
+      </c>
+      <c r="G33" s="19">
+        <v>435245</v>
+      </c>
+      <c r="H33" s="19">
+        <v>545048</v>
+      </c>
+      <c r="I33" s="19">
+        <v>137799</v>
+      </c>
+      <c r="J33" s="19">
+        <v>550642</v>
+      </c>
+      <c r="K33" s="19">
         <v>-1707859</v>
       </c>
-      <c r="E33" s="19">
+      <c r="L33" s="19">
         <v>-1247773</v>
       </c>
-      <c r="F33" s="19">
+      <c r="M33" s="19">
         <v>-520219</v>
       </c>
-      <c r="G33" s="19">
+      <c r="N33" s="19">
         <v>-2066160</v>
       </c>
-      <c r="H33" s="19">
+      <c r="O33" s="19">
         <v>2603895</v>
       </c>
-      <c r="I33" s="19">
+      <c r="P33" s="19">
         <v>-448377</v>
       </c>
-      <c r="J33" s="19">
+      <c r="Q33" s="19">
         <v>2580470</v>
       </c>
-      <c r="K33" s="19">
+      <c r="R33" s="19">
         <v>-380758</v>
       </c>
-      <c r="L33" s="19">
+      <c r="S33" s="19">
         <v>463504</v>
       </c>
-      <c r="M33" s="19">
+      <c r="T33" s="19">
         <v>1371603</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U33" s="19">
+        <v>5062567</v>
+      </c>
+      <c r="V33" s="19">
+        <v>1521124</v>
+      </c>
+      <c r="W33" s="19">
+        <v>-2624527</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1732,10 +2588,20 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1768,46 +2634,106 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1840,10 +2766,40 @@
       <c r="M37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1865,129 +2821,249 @@
         <v>0</v>
       </c>
       <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
         <v>-34214</v>
       </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
+        <v>700000</v>
+      </c>
+      <c r="E39" s="15">
+        <v>-260250</v>
+      </c>
+      <c r="F39" s="15">
+        <v>120000</v>
+      </c>
+      <c r="G39" s="15">
+        <v>844873</v>
+      </c>
+      <c r="H39" s="15">
+        <v>589000</v>
+      </c>
+      <c r="I39" s="15">
+        <v>128686</v>
+      </c>
+      <c r="J39" s="15">
+        <v>546470</v>
+      </c>
+      <c r="K39" s="15">
         <v>2102446</v>
       </c>
-      <c r="E39" s="15">
+      <c r="L39" s="15">
         <v>2333000</v>
       </c>
-      <c r="F39" s="15">
+      <c r="M39" s="15">
         <v>2251735</v>
       </c>
-      <c r="G39" s="15">
+      <c r="N39" s="15">
         <v>4659550</v>
       </c>
-      <c r="H39" s="15">
+      <c r="O39" s="15">
         <v>1139632</v>
       </c>
-      <c r="I39" s="15">
+      <c r="P39" s="15">
         <v>5686262</v>
       </c>
-      <c r="J39" s="15">
+      <c r="Q39" s="15">
         <v>-133657</v>
       </c>
-      <c r="K39" s="15">
+      <c r="R39" s="15">
         <v>3648497</v>
       </c>
-      <c r="L39" s="15">
+      <c r="S39" s="15">
         <v>6024250</v>
       </c>
-      <c r="M39" s="15">
+      <c r="T39" s="15">
         <v>7594386</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U39" s="15">
+        <v>7661986</v>
+      </c>
+      <c r="V39" s="15">
+        <v>5632201</v>
+      </c>
+      <c r="W39" s="15">
+        <v>8717524</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>-349857</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-467631</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-396153</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-409820</v>
+      </c>
+      <c r="H40" s="11">
+        <v>-668591</v>
+      </c>
+      <c r="I40" s="11">
+        <v>-175736</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-518692</v>
+      </c>
+      <c r="K40" s="11">
         <v>-682125</v>
       </c>
-      <c r="E40" s="11">
+      <c r="L40" s="11">
         <v>-731894</v>
       </c>
-      <c r="F40" s="11">
+      <c r="M40" s="11">
         <v>-369388</v>
       </c>
-      <c r="G40" s="11">
+      <c r="N40" s="11">
         <v>-1922743</v>
       </c>
-      <c r="H40" s="11">
+      <c r="O40" s="11">
         <v>-3337044</v>
       </c>
-      <c r="I40" s="11">
+      <c r="P40" s="11">
         <v>-3011791</v>
       </c>
-      <c r="J40" s="11">
+      <c r="Q40" s="11">
         <v>-2742479</v>
       </c>
-      <c r="K40" s="11">
+      <c r="R40" s="11">
         <v>-1994126</v>
       </c>
-      <c r="L40" s="11">
+      <c r="S40" s="11">
         <v>-3808819</v>
       </c>
-      <c r="M40" s="11">
+      <c r="T40" s="11">
         <v>-6943962</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U40" s="11">
+        <v>-6014062</v>
+      </c>
+      <c r="V40" s="11">
+        <v>-8148543</v>
+      </c>
+      <c r="W40" s="11">
+        <v>-5252118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-28385</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-151015</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-98072</v>
+      </c>
+      <c r="G41" s="15">
+        <v>14536</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-42952</v>
+      </c>
+      <c r="I41" s="15">
+        <v>-155594</v>
+      </c>
+      <c r="J41" s="15">
+        <v>-58199</v>
+      </c>
+      <c r="K41" s="15">
         <v>-71200</v>
       </c>
-      <c r="E41" s="15">
+      <c r="L41" s="15">
         <v>-92686</v>
       </c>
-      <c r="F41" s="15">
+      <c r="M41" s="15">
         <v>-358012</v>
       </c>
-      <c r="G41" s="15">
+      <c r="N41" s="15">
         <v>-307451</v>
       </c>
-      <c r="H41" s="15">
+      <c r="O41" s="15">
         <v>-435312</v>
       </c>
-      <c r="I41" s="15">
+      <c r="P41" s="15">
         <v>-458752</v>
       </c>
-      <c r="J41" s="15">
+      <c r="Q41" s="15">
         <v>171923</v>
       </c>
-      <c r="K41" s="15">
+      <c r="R41" s="15">
         <v>-388788</v>
       </c>
-      <c r="L41" s="15">
+      <c r="S41" s="15">
         <v>-416618</v>
       </c>
-      <c r="M41" s="15">
+      <c r="T41" s="15">
         <v>-989075</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U41" s="15">
+        <v>-644854</v>
+      </c>
+      <c r="V41" s="15">
+        <v>-862500</v>
+      </c>
+      <c r="W41" s="15">
+        <v>-882403</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -2020,10 +3096,40 @@
       <c r="M42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -2056,10 +3162,40 @@
       <c r="M43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15">
+        <v>0</v>
+      </c>
+      <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -2092,10 +3228,40 @@
       <c r="M44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2128,10 +3294,40 @@
       <c r="M45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15">
+        <v>0</v>
+      </c>
+      <c r="S45" s="15">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2164,10 +3360,40 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2200,10 +3426,40 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2236,10 +3492,40 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2272,260 +3558,500 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-22587</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-129594</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-92703</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-596639</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-114976</v>
+      </c>
+      <c r="I50" s="11">
+        <v>114976</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-124672</v>
+      </c>
+      <c r="K50" s="11">
         <v>-336143</v>
       </c>
-      <c r="E50" s="11">
+      <c r="L50" s="11">
         <v>-275298</v>
       </c>
-      <c r="F50" s="11">
+      <c r="M50" s="11">
         <v>-465657</v>
       </c>
-      <c r="G50" s="11">
+      <c r="N50" s="11">
         <v>-409450</v>
       </c>
-      <c r="H50" s="11">
+      <c r="O50" s="11">
         <v>-78861</v>
       </c>
-      <c r="I50" s="11">
+      <c r="P50" s="11">
         <v>-1626341</v>
       </c>
-      <c r="J50" s="11">
+      <c r="Q50" s="11">
         <v>128851</v>
       </c>
-      <c r="K50" s="11">
+      <c r="R50" s="11">
         <v>-880387</v>
       </c>
-      <c r="L50" s="11">
+      <c r="S50" s="11">
         <v>-624172</v>
       </c>
-      <c r="M50" s="11">
+      <c r="T50" s="11">
         <v>-2175628</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U50" s="11">
+        <v>-1756077</v>
+      </c>
+      <c r="V50" s="11">
+        <v>-504105</v>
+      </c>
+      <c r="W50" s="11">
+        <v>-1560566</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>299171</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-1008490</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-466928</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-147050</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-237519</v>
+      </c>
+      <c r="I51" s="17">
+        <v>-87668</v>
+      </c>
+      <c r="J51" s="17">
+        <v>-155093</v>
+      </c>
+      <c r="K51" s="17">
         <v>1137650</v>
       </c>
-      <c r="E51" s="17">
+      <c r="L51" s="17">
         <v>1233122</v>
       </c>
-      <c r="F51" s="17">
+      <c r="M51" s="17">
         <v>1058678</v>
       </c>
-      <c r="G51" s="17">
+      <c r="N51" s="17">
         <v>2019906</v>
       </c>
-      <c r="H51" s="17">
+      <c r="O51" s="17">
         <v>-2711585</v>
       </c>
-      <c r="I51" s="17">
+      <c r="P51" s="17">
         <v>589378</v>
       </c>
-      <c r="J51" s="17">
+      <c r="Q51" s="17">
         <v>-2609576</v>
       </c>
-      <c r="K51" s="17">
+      <c r="R51" s="17">
         <v>385196</v>
       </c>
-      <c r="L51" s="17">
+      <c r="S51" s="17">
         <v>1174641</v>
       </c>
-      <c r="M51" s="17">
+      <c r="T51" s="17">
         <v>-2514279</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U51" s="17">
+        <v>-753007</v>
+      </c>
+      <c r="V51" s="17">
+        <v>-3882947</v>
+      </c>
+      <c r="W51" s="17">
+        <v>1022437</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>-237617</v>
+      </c>
+      <c r="E52" s="19">
+        <v>67134</v>
+      </c>
+      <c r="F52" s="19">
+        <v>-370756</v>
+      </c>
+      <c r="G52" s="19">
+        <v>288195</v>
+      </c>
+      <c r="H52" s="19">
+        <v>307529</v>
+      </c>
+      <c r="I52" s="19">
+        <v>50131</v>
+      </c>
+      <c r="J52" s="19">
+        <v>395549</v>
+      </c>
+      <c r="K52" s="19">
         <v>-694881</v>
       </c>
-      <c r="E52" s="19">
+      <c r="L52" s="19">
         <v>-14651</v>
       </c>
-      <c r="F52" s="19">
+      <c r="M52" s="19">
         <v>538459</v>
       </c>
-      <c r="G52" s="19">
+      <c r="N52" s="19">
         <v>-46254</v>
       </c>
-      <c r="H52" s="19">
+      <c r="O52" s="19">
         <v>-107690</v>
       </c>
-      <c r="I52" s="19">
+      <c r="P52" s="19">
         <v>141001</v>
       </c>
-      <c r="J52" s="19">
+      <c r="Q52" s="19">
         <v>-29106</v>
       </c>
-      <c r="K52" s="19">
+      <c r="R52" s="19">
         <v>4438</v>
       </c>
-      <c r="L52" s="19">
+      <c r="S52" s="19">
         <v>1638145</v>
       </c>
-      <c r="M52" s="19">
+      <c r="T52" s="19">
         <v>-1142676</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U52" s="19">
+        <v>4309560</v>
+      </c>
+      <c r="V52" s="19">
+        <v>-2361823</v>
+      </c>
+      <c r="W52" s="19">
+        <v>-1602090</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>728863</v>
+      </c>
+      <c r="E53" s="15">
+        <v>490834</v>
+      </c>
+      <c r="F53" s="15">
+        <v>559463</v>
+      </c>
+      <c r="G53" s="15">
+        <v>188707</v>
+      </c>
+      <c r="H53" s="15">
+        <v>477090</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>834822</v>
+      </c>
+      <c r="K53" s="15">
         <v>1230371</v>
       </c>
-      <c r="E53" s="15">
+      <c r="L53" s="15">
         <v>556805</v>
       </c>
-      <c r="F53" s="15">
+      <c r="M53" s="15">
         <v>541084</v>
       </c>
-      <c r="G53" s="15">
+      <c r="N53" s="15">
         <v>1078599</v>
       </c>
-      <c r="H53" s="15">
+      <c r="O53" s="15">
         <v>1032345</v>
       </c>
-      <c r="I53" s="15">
-        <v>939117</v>
-      </c>
-      <c r="J53" s="15">
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
         <v>1065656</v>
       </c>
-      <c r="K53" s="15">
+      <c r="R53" s="15">
         <v>1019727</v>
       </c>
-      <c r="L53" s="15">
+      <c r="S53" s="15">
         <v>1024165</v>
       </c>
-      <c r="M53" s="15">
-        <v>2662310</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>1519634</v>
+      </c>
+      <c r="V53" s="15">
+        <v>5849174</v>
+      </c>
+      <c r="W53" s="15">
+        <v>3487351</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>-412</v>
+      </c>
+      <c r="E54" s="11">
+        <v>1495</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>188</v>
+      </c>
+      <c r="H54" s="11">
+        <v>42</v>
+      </c>
+      <c r="I54" s="11">
+        <v>30</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
         <v>21315</v>
       </c>
-      <c r="E54" s="11">
+      <c r="L54" s="11">
         <v>-1070</v>
       </c>
-      <c r="F54" s="11">
+      <c r="M54" s="11">
         <v>-944</v>
       </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+      <c r="O54" s="11">
         <v>14462</v>
       </c>
-      <c r="I54" s="11">
+      <c r="P54" s="11">
         <v>-14462</v>
       </c>
-      <c r="J54" s="11">
+      <c r="Q54" s="11">
         <v>-16823</v>
       </c>
-      <c r="K54" s="11">
-        <v>0</v>
-      </c>
-      <c r="L54" s="11">
-        <v>0</v>
-      </c>
-      <c r="M54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R54" s="11">
+        <v>0</v>
+      </c>
+      <c r="S54" s="11">
+        <v>0</v>
+      </c>
+      <c r="T54" s="11">
+        <v>0</v>
+      </c>
+      <c r="U54" s="11">
+        <v>19980</v>
+      </c>
+      <c r="V54" s="11">
+        <v>0</v>
+      </c>
+      <c r="W54" s="11">
+        <v>25068</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>490834</v>
+      </c>
+      <c r="E55" s="17">
+        <v>559463</v>
+      </c>
+      <c r="F55" s="17">
+        <v>188707</v>
+      </c>
+      <c r="G55" s="17">
+        <v>477090</v>
+      </c>
+      <c r="H55" s="17">
+        <v>784661</v>
+      </c>
+      <c r="I55" s="17">
+        <v>834822</v>
+      </c>
+      <c r="J55" s="17">
+        <v>1230371</v>
+      </c>
+      <c r="K55" s="17">
         <v>556805</v>
       </c>
-      <c r="E55" s="17">
+      <c r="L55" s="17">
         <v>541084</v>
       </c>
-      <c r="F55" s="17">
+      <c r="M55" s="17">
         <v>1078599</v>
       </c>
-      <c r="G55" s="17">
+      <c r="N55" s="17">
         <v>1032345</v>
       </c>
-      <c r="H55" s="17">
+      <c r="O55" s="17">
         <v>939117</v>
       </c>
-      <c r="I55" s="17">
+      <c r="P55" s="17">
         <v>1065656</v>
       </c>
-      <c r="J55" s="17">
+      <c r="Q55" s="17">
         <v>1019727</v>
       </c>
-      <c r="K55" s="17">
+      <c r="R55" s="17">
         <v>1024165</v>
       </c>
-      <c r="L55" s="17">
+      <c r="S55" s="17">
         <v>2662310</v>
       </c>
-      <c r="M55" s="17">
+      <c r="T55" s="17">
         <v>1519634</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U55" s="17">
+        <v>5849174</v>
+      </c>
+      <c r="V55" s="17">
+        <v>3487351</v>
+      </c>
+      <c r="W55" s="17">
+        <v>1910329</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
         <v>309905</v>
       </c>
-      <c r="E56" s="11">
+      <c r="L56" s="11">
         <v>-309905</v>
       </c>
-      <c r="F56" s="11">
+      <c r="M56" s="11">
         <v>309905</v>
       </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>0</v>
-      </c>
-      <c r="J56" s="11">
-        <v>0</v>
-      </c>
-      <c r="K56" s="11">
-        <v>0</v>
-      </c>
-      <c r="L56" s="11">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
+      <c r="O56" s="11">
+        <v>0</v>
+      </c>
+      <c r="P56" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>0</v>
+      </c>
+      <c r="R56" s="11">
+        <v>0</v>
+      </c>
+      <c r="S56" s="11">
+        <v>0</v>
+      </c>
+      <c r="T56" s="11">
+        <v>0</v>
+      </c>
+      <c r="U56" s="11">
+        <v>0</v>
+      </c>
+      <c r="V56" s="11">
+        <v>0</v>
+      </c>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2538,6 +4064,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
